--- a/DB_Water_Scada.xlsx
+++ b/DB_Water_Scada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\OneDrive\เอกสาร\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E831497F-122D-4F7C-BEC6-94F7759F7D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A56D70F-1E4B-4A37-BA0C-149E3DF9122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E914F9C7-78D5-4516-A71D-BD375FD0A121}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
   <si>
     <t>Scada System</t>
   </si>
@@ -135,9 +135,6 @@
     <t>2026_01_12_SMMT_Daily_Report</t>
   </si>
   <si>
-    <t>2026_01_12_UF_System</t>
-  </si>
-  <si>
     <t>AE</t>
   </si>
   <si>
@@ -175,6 +172,12 @@
   </si>
   <si>
     <t>T</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>AF_Report_Gen</t>
   </si>
 </sst>
 </file>
@@ -356,15 +359,6 @@
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -384,6 +378,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -701,7 +704,7 @@
   <dimension ref="B1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -713,377 +716,377 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="11">
-        <v>23.55</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="D3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="8">
+        <v>23.55</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="12">
-        <v>23.55</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="D4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="9">
+        <v>23.55</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="12">
-        <v>23.55</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="D5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="9">
+        <v>23.55</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="12">
-        <v>23.55</v>
-      </c>
-      <c r="F6" s="12" t="s">
+      <c r="D6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="9">
+        <v>23.55</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="12">
-        <v>23.55</v>
-      </c>
-      <c r="F7" s="12" t="s">
+      <c r="D7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="9">
+        <v>23.55</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="12">
-        <v>23.55</v>
-      </c>
-      <c r="F8" s="12" t="s">
+      <c r="D8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="9">
+        <v>23.55</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="12">
-        <v>23.55</v>
-      </c>
-      <c r="F9" s="12" t="s">
+      <c r="D9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="9">
+        <v>23.55</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="9">
+        <v>23.55</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="12" t="s">
+    <row r="11" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="12">
-        <v>23.55</v>
-      </c>
-      <c r="F10" s="12" t="s">
+      <c r="D11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="9">
+        <v>23.55</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="12" t="s">
+    <row r="12" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="12">
-        <v>23.55</v>
-      </c>
-      <c r="F11" s="12" t="s">
+      <c r="D12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="9">
+        <v>23.55</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="12" t="s">
+    <row r="13" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="12">
-        <v>23.55</v>
-      </c>
-      <c r="F12" s="12" t="s">
+      <c r="D13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="9">
+        <v>23.55</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="12" t="s">
+    <row r="14" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="12">
-        <v>23.55</v>
-      </c>
-      <c r="F13" s="12" t="s">
+      <c r="D14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="9">
+        <v>23.55</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="12" t="s">
+    <row r="15" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="12">
-        <v>23.55</v>
-      </c>
-      <c r="F14" s="12" t="s">
+      <c r="D15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="9">
+        <v>23.55</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="12">
-        <v>23.55</v>
-      </c>
-      <c r="F15" s="12" t="s">
+    <row r="16" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="9">
+        <v>23.55</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="9">
+        <v>23.55</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="12">
-        <v>23.55</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="12">
-        <v>23.55</v>
-      </c>
-      <c r="F18" s="12" t="s">
+    <row r="19" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="9">
+        <v>23.55</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="12">
-        <v>23.55</v>
-      </c>
-      <c r="F19" s="12" t="s">
+    <row r="20" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="9">
+        <v>23.55</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="12">
-        <v>23.55</v>
-      </c>
-      <c r="F20" s="12" t="s">
+    <row r="21" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="9">
+        <v>23.55</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="12">
-        <v>23.55</v>
-      </c>
-      <c r="F21" s="12" t="s">
+    <row r="22" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="9">
+        <v>23.55</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="12">
-        <v>23.55</v>
-      </c>
-      <c r="F22" s="12" t="s">
+    <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="10">
+        <v>23.55</v>
+      </c>
+      <c r="F23" s="10" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="13">
-        <v>23.55</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
